--- a/report/benchmark/v3/gpu_sm.xlsx
+++ b/report/benchmark/v3/gpu_sm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gitop\Desktop\v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gitop\repos\non-local-means-cuda\report\benchmark\v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877B9F63-A978-4EFF-B7E8-323855370B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01D8156-5494-408D-AF18-13BA2F80A505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F368AF99-82DD-4BFB-9BDB-AE94B941B024}"/>
   </bookViews>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23BCC32-C307-4780-B913-C86A0F376FAD}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,10 +422,10 @@
         <v>635</v>
       </c>
       <c r="C2">
-        <v>748</v>
+        <v>670</v>
       </c>
       <c r="D2">
-        <v>844</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -436,10 +436,10 @@
         <v>825</v>
       </c>
       <c r="C3">
-        <v>1093</v>
+        <v>950</v>
       </c>
       <c r="D3">
-        <v>1172</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -447,13 +447,13 @@
         <v>256</v>
       </c>
       <c r="B4">
-        <v>1591</v>
+        <v>1561</v>
       </c>
       <c r="C4">
-        <v>2120</v>
+        <v>1962</v>
       </c>
       <c r="D4">
-        <v>2174</v>
+        <v>2608</v>
       </c>
     </row>
   </sheetData>
